--- a/results/results.xlsx
+++ b/results/results.xlsx
@@ -4,16 +4,16 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="6"/>
   </bookViews>
   <sheets>
-    <sheet name="Execution time real datasets" sheetId="5" r:id="rId1"/>
-    <sheet name="Accuracy real datasets" sheetId="6" r:id="rId2"/>
-    <sheet name="Difference in accuracy real dat" sheetId="7" r:id="rId3"/>
-    <sheet name="SpeedUp real datasets" sheetId="8" r:id="rId4"/>
-    <sheet name="real_datasets" sheetId="1" r:id="rId5"/>
-    <sheet name="BayesNet" sheetId="2" r:id="rId6"/>
-    <sheet name="RDG1" sheetId="3" r:id="rId7"/>
+    <sheet name="real_datasets" sheetId="1" r:id="rId1"/>
+    <sheet name="BayesNet" sheetId="2" r:id="rId2"/>
+    <sheet name="RDG1" sheetId="3" r:id="rId3"/>
+    <sheet name="Execution time real datasets" sheetId="5" r:id="rId4"/>
+    <sheet name="Accuracy real datasets" sheetId="6" r:id="rId5"/>
+    <sheet name="Difference in accuracy real dat" sheetId="7" r:id="rId6"/>
+    <sheet name="SpeedUp real datasets" sheetId="8" r:id="rId7"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -154,9 +154,6 @@
   </si>
   <si>
     <t xml:space="preserve"> time_W</t>
-  </si>
-  <si>
-    <t>numInst</t>
   </si>
   <si>
     <t>RDG1_100_100.arff</t>
@@ -452,6 +449,9 @@
   <si>
     <t>time_FRF_0.99/time_FRF</t>
   </si>
+  <si>
+    <t>numAttr</t>
+  </si>
 </sst>
 </file>
 
@@ -500,9 +500,6 @@
   </cellStyles>
   <dxfs count="40">
     <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
     </dxf>
     <dxf>
@@ -510,21 +507,6 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
@@ -563,6 +545,15 @@
       <numFmt numFmtId="2" formatCode="0.00"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="164" formatCode="0.000"/>
     </dxf>
     <dxf>
@@ -585,6 +576,15 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
@@ -5801,7 +5801,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="9308830" cy="6079787"/>
+    <xdr:ext cx="9302074" cy="6079787"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1"/>
@@ -5828,7 +5828,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="9308830" cy="6079787"/>
+    <xdr:ext cx="9302074" cy="6079787"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1"/>
@@ -5855,7 +5855,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="9308830" cy="6079787"/>
+    <xdr:ext cx="9302074" cy="6079787"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1"/>
@@ -5882,7 +5882,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="9308830" cy="6079787"/>
+    <xdr:ext cx="9302074" cy="6079787"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1"/>
@@ -5908,13 +5908,13 @@
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:S34" totalsRowShown="0">
   <autoFilter ref="A1:S34"/>
-  <sortState caseSensitive="1" ref="A2:O124">
-    <sortCondition ref="A1:A124"/>
+  <sortState caseSensitive="1" ref="A2:S34">
+    <sortCondition ref="A1:A34"/>
   </sortState>
   <tableColumns count="19">
     <tableColumn id="1" name="name"/>
     <tableColumn id="2" name=" numInst"/>
-    <tableColumn id="3" name="numInst" dataDxfId="39">
+    <tableColumn id="3" name="numAttr" dataDxfId="39">
       <calculatedColumnFormula>Table1[[#This Row],[ numNumeric]]+Table1[[#This Row],[ numNominal]]</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="4" name=" numNumeric"/>
@@ -5935,12 +5935,12 @@
     <tableColumn id="15" name="time_W/time_FRF" dataDxfId="30">
       <calculatedColumnFormula>Table1[[#This Row],[ time_W]]/Table1[[#This Row],[ time_FRF]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="16" name="acc_FRF_0.99" dataDxfId="8"/>
-    <tableColumn id="17" name="time_FRF_0.99" dataDxfId="6"/>
-    <tableColumn id="18" name="acc_FRF - acc_FRF_0.99" dataDxfId="7">
+    <tableColumn id="16" name="acc_FRF_0.99" dataDxfId="29"/>
+    <tableColumn id="17" name="time_FRF_0.99" dataDxfId="28"/>
+    <tableColumn id="18" name="acc_FRF - acc_FRF_0.99" dataDxfId="27">
       <calculatedColumnFormula>Table1[[#This Row],[ acc_FRF]]-Table1[[#This Row],[acc_FRF_0.99]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="19" name="time_FRF_0.99/time_FRF" dataDxfId="29">
+    <tableColumn id="19" name="time_FRF_0.99/time_FRF" dataDxfId="26">
       <calculatedColumnFormula>Table1[[#This Row],[time_FRF_0.99]]/Table1[[#This Row],[ time_FRF]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -5954,31 +5954,31 @@
   <tableColumns count="19">
     <tableColumn id="1" name="name"/>
     <tableColumn id="2" name=" numInst"/>
-    <tableColumn id="3" name="numInst"/>
+    <tableColumn id="3" name="numAttr"/>
     <tableColumn id="4" name=" numNumeric"/>
     <tableColumn id="5" name=" numNominal"/>
     <tableColumn id="6" name=" numClasses"/>
-    <tableColumn id="7" name=" acc_FRF" dataDxfId="28"/>
-    <tableColumn id="8" name=" time_FRF" dataDxfId="27"/>
-    <tableColumn id="9" name=" auc_FRF" dataDxfId="26"/>
-    <tableColumn id="10" name=" acc_W" dataDxfId="25"/>
-    <tableColumn id="11" name=" time_W" dataDxfId="24"/>
-    <tableColumn id="12" name=" auc_W" dataDxfId="23"/>
-    <tableColumn id="13" name="acc_FRF - acc_W" dataDxfId="22">
+    <tableColumn id="7" name=" acc_FRF" dataDxfId="25"/>
+    <tableColumn id="8" name=" time_FRF" dataDxfId="24"/>
+    <tableColumn id="9" name=" auc_FRF" dataDxfId="23"/>
+    <tableColumn id="10" name=" acc_W" dataDxfId="22"/>
+    <tableColumn id="11" name=" time_W" dataDxfId="21"/>
+    <tableColumn id="12" name=" auc_W" dataDxfId="20"/>
+    <tableColumn id="13" name="acc_FRF - acc_W" dataDxfId="19">
       <calculatedColumnFormula>Table2[[#This Row],[ acc_FRF]]-Table2[[#This Row],[ acc_W]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" name="auc_FRF - auc_W" dataDxfId="21">
+    <tableColumn id="14" name="auc_FRF - auc_W" dataDxfId="18">
       <calculatedColumnFormula>Table2[[#This Row],[ auc_FRF]]-Table2[[#This Row],[ auc_W]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" name="time_W/time_FRF" dataDxfId="20">
+    <tableColumn id="15" name="time_W/time_FRF" dataDxfId="17">
       <calculatedColumnFormula>Table2[[#This Row],[ time_W]]/Table2[[#This Row],[ time_FRF]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="16" name="acc_FRF_0.99" dataDxfId="5"/>
-    <tableColumn id="17" name="time_FRF_0.99" dataDxfId="3"/>
-    <tableColumn id="18" name="acc_FRF - acc_FRF_0.99" dataDxfId="4">
+    <tableColumn id="16" name="acc_FRF_0.99" dataDxfId="16"/>
+    <tableColumn id="17" name="time_FRF_0.99" dataDxfId="15"/>
+    <tableColumn id="18" name="acc_FRF - acc_FRF_0.99" dataDxfId="14">
       <calculatedColumnFormula>Table2[[#This Row],[ acc_FRF]]-Table2[[#This Row],[acc_FRF_0.99]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="19" name="time_FRF_0.99/time_FRF" dataDxfId="19">
+    <tableColumn id="19" name="time_FRF_0.99/time_FRF" dataDxfId="13">
       <calculatedColumnFormula>Table2[[#This Row],[time_FRF_0.99]]/Table2[[#This Row],[ time_FRF]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -5992,31 +5992,31 @@
   <tableColumns count="19">
     <tableColumn id="1" name="name"/>
     <tableColumn id="2" name=" numInst"/>
-    <tableColumn id="3" name="numInst"/>
+    <tableColumn id="3" name="numAttr"/>
     <tableColumn id="4" name=" numNumeric"/>
     <tableColumn id="5" name=" numNominal"/>
     <tableColumn id="6" name=" numClasses"/>
-    <tableColumn id="7" name=" acc_FRF" dataDxfId="18"/>
-    <tableColumn id="8" name=" time_FRF" dataDxfId="17"/>
-    <tableColumn id="9" name=" auc_FRF" dataDxfId="16"/>
-    <tableColumn id="10" name=" acc_W" dataDxfId="15"/>
-    <tableColumn id="11" name=" time_W" dataDxfId="14"/>
-    <tableColumn id="12" name=" auc_W" dataDxfId="13"/>
-    <tableColumn id="13" name="acc_FRF - acc_W" dataDxfId="12">
+    <tableColumn id="7" name=" acc_FRF" dataDxfId="12"/>
+    <tableColumn id="8" name=" time_FRF" dataDxfId="11"/>
+    <tableColumn id="9" name=" auc_FRF" dataDxfId="10"/>
+    <tableColumn id="10" name=" acc_W" dataDxfId="9"/>
+    <tableColumn id="11" name=" time_W" dataDxfId="8"/>
+    <tableColumn id="12" name=" auc_W" dataDxfId="7"/>
+    <tableColumn id="13" name="acc_FRF - acc_W" dataDxfId="6">
       <calculatedColumnFormula>Table3[[#This Row],[ acc_FRF]]-Table3[[#This Row],[ acc_W]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" name="auc_FRF - auc_W" dataDxfId="11">
+    <tableColumn id="14" name="auc_FRF - auc_W" dataDxfId="5">
       <calculatedColumnFormula>Table3[[#This Row],[ auc_FRF]]-Table3[[#This Row],[ auc_W]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" name="time_W/time_FRF" dataDxfId="10">
+    <tableColumn id="15" name="time_W/time_FRF" dataDxfId="4">
       <calculatedColumnFormula>Table3[[#This Row],[ time_W]]/Table3[[#This Row],[ time_FRF]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="16" name="acc_FRF_0.99" dataDxfId="2"/>
-    <tableColumn id="17" name="time_FRF_0.99" dataDxfId="0"/>
+    <tableColumn id="16" name="acc_FRF_0.99" dataDxfId="3"/>
+    <tableColumn id="17" name="time_FRF_0.99" dataDxfId="2"/>
     <tableColumn id="18" name="acc_FRF - acc_FRF_0.99" dataDxfId="1">
       <calculatedColumnFormula>Table3[[#This Row],[ acc_FRF]]-Table3[[#This Row],[acc_FRF_0.99]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="19" name="time_FRF_0.99/time_FRF" dataDxfId="9">
+    <tableColumn id="19" name="time_FRF_0.99/time_FRF" dataDxfId="0">
       <calculatedColumnFormula>Table3[[#This Row],[time_FRF_0.99]]/Table3[[#This Row],[ time_FRF]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -6290,7 +6290,7 @@
   <dimension ref="A1:S34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O1" activeCellId="1" sqref="A1:A1048576 O1:O1048576"/>
+      <selection activeCell="A7" sqref="A7:XFD7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6323,7 +6323,7 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>43</v>
+        <v>141</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
@@ -6341,7 +6341,7 @@
         <v>6</v>
       </c>
       <c r="I1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J1" t="s">
         <v>41</v>
@@ -6353,25 +6353,25 @@
         <v>7</v>
       </c>
       <c r="M1" t="s">
+        <v>134</v>
+      </c>
+      <c r="N1" t="s">
         <v>135</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
+        <v>139</v>
+      </c>
+      <c r="P1" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q1" t="s">
         <v>136</v>
       </c>
-      <c r="O1" t="s">
+      <c r="R1" t="s">
+        <v>138</v>
+      </c>
+      <c r="S1" t="s">
         <v>140</v>
-      </c>
-      <c r="P1" t="s">
-        <v>138</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>137</v>
-      </c>
-      <c r="R1" t="s">
-        <v>139</v>
-      </c>
-      <c r="S1" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
@@ -8522,7 +8522,7 @@
   <dimension ref="A1:S46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="Q28" sqref="Q28"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8555,7 +8555,7 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>43</v>
+        <v>141</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
@@ -8573,7 +8573,7 @@
         <v>6</v>
       </c>
       <c r="I1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J1" t="s">
         <v>41</v>
@@ -8585,30 +8585,30 @@
         <v>7</v>
       </c>
       <c r="M1" t="s">
+        <v>134</v>
+      </c>
+      <c r="N1" t="s">
         <v>135</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
+        <v>139</v>
+      </c>
+      <c r="P1" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q1" t="s">
         <v>136</v>
       </c>
-      <c r="O1" t="s">
+      <c r="R1" t="s">
+        <v>138</v>
+      </c>
+      <c r="S1" t="s">
         <v>140</v>
-      </c>
-      <c r="P1" t="s">
-        <v>138</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>137</v>
-      </c>
-      <c r="R1" t="s">
-        <v>139</v>
-      </c>
-      <c r="S1" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B2">
         <v>100</v>
@@ -8672,7 +8672,7 @@
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B3">
         <v>100</v>
@@ -8736,7 +8736,7 @@
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B4">
         <v>100</v>
@@ -8800,7 +8800,7 @@
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B5">
         <v>100</v>
@@ -8864,7 +8864,7 @@
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B6">
         <v>100</v>
@@ -8928,7 +8928,7 @@
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B7">
         <v>100</v>
@@ -8992,7 +8992,7 @@
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B8">
         <v>100</v>
@@ -9056,7 +9056,7 @@
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B9">
         <v>100</v>
@@ -9120,7 +9120,7 @@
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B10">
         <v>100</v>
@@ -9184,7 +9184,7 @@
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B11">
         <v>12800</v>
@@ -9248,7 +9248,7 @@
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B12">
         <v>12800</v>
@@ -9312,7 +9312,7 @@
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B13">
         <v>1600</v>
@@ -9376,7 +9376,7 @@
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B14">
         <v>1600</v>
@@ -9440,7 +9440,7 @@
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B15">
         <v>1600</v>
@@ -9504,7 +9504,7 @@
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B16">
         <v>1600</v>
@@ -9568,7 +9568,7 @@
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B17">
         <v>1600</v>
@@ -9632,7 +9632,7 @@
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B18">
         <v>200</v>
@@ -9696,7 +9696,7 @@
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B19">
         <v>200</v>
@@ -9760,7 +9760,7 @@
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B20">
         <v>200</v>
@@ -9824,7 +9824,7 @@
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B21">
         <v>200</v>
@@ -9888,7 +9888,7 @@
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B22">
         <v>200</v>
@@ -9952,7 +9952,7 @@
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B23">
         <v>200</v>
@@ -10016,7 +10016,7 @@
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B24">
         <v>200</v>
@@ -10080,7 +10080,7 @@
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B25">
         <v>200</v>
@@ -10144,7 +10144,7 @@
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B26">
         <v>25600</v>
@@ -10208,7 +10208,7 @@
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B27">
         <v>3200</v>
@@ -10272,7 +10272,7 @@
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B28">
         <v>3200</v>
@@ -10336,7 +10336,7 @@
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B29">
         <v>3200</v>
@@ -10400,7 +10400,7 @@
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B30">
         <v>3200</v>
@@ -10464,7 +10464,7 @@
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B31">
         <v>400</v>
@@ -10528,7 +10528,7 @@
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B32">
         <v>400</v>
@@ -10592,7 +10592,7 @@
     </row>
     <row r="33" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B33">
         <v>400</v>
@@ -10656,7 +10656,7 @@
     </row>
     <row r="34" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B34">
         <v>400</v>
@@ -10720,7 +10720,7 @@
     </row>
     <row r="35" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B35">
         <v>400</v>
@@ -10784,7 +10784,7 @@
     </row>
     <row r="36" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B36">
         <v>400</v>
@@ -10848,7 +10848,7 @@
     </row>
     <row r="37" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B37">
         <v>400</v>
@@ -10912,7 +10912,7 @@
     </row>
     <row r="38" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B38">
         <v>6400</v>
@@ -10976,7 +10976,7 @@
     </row>
     <row r="39" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B39">
         <v>6400</v>
@@ -11040,7 +11040,7 @@
     </row>
     <row r="40" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B40">
         <v>6400</v>
@@ -11104,7 +11104,7 @@
     </row>
     <row r="41" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B41">
         <v>800</v>
@@ -11168,7 +11168,7 @@
     </row>
     <row r="42" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B42">
         <v>800</v>
@@ -11232,7 +11232,7 @@
     </row>
     <row r="43" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B43">
         <v>800</v>
@@ -11296,7 +11296,7 @@
     </row>
     <row r="44" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B44">
         <v>800</v>
@@ -11360,7 +11360,7 @@
     </row>
     <row r="45" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B45">
         <v>800</v>
@@ -11424,7 +11424,7 @@
     </row>
     <row r="46" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B46">
         <v>800</v>
@@ -11499,7 +11499,7 @@
   <dimension ref="A1:S46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="Q19" sqref="Q19"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11532,7 +11532,7 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>43</v>
+        <v>141</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
@@ -11550,7 +11550,7 @@
         <v>6</v>
       </c>
       <c r="I1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J1" t="s">
         <v>41</v>
@@ -11562,30 +11562,30 @@
         <v>7</v>
       </c>
       <c r="M1" t="s">
+        <v>134</v>
+      </c>
+      <c r="N1" t="s">
         <v>135</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
+        <v>139</v>
+      </c>
+      <c r="P1" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q1" t="s">
         <v>136</v>
       </c>
-      <c r="O1" t="s">
+      <c r="R1" t="s">
+        <v>138</v>
+      </c>
+      <c r="S1" t="s">
         <v>140</v>
-      </c>
-      <c r="P1" t="s">
-        <v>138</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>137</v>
-      </c>
-      <c r="R1" t="s">
-        <v>139</v>
-      </c>
-      <c r="S1" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B2">
         <v>100</v>
@@ -11649,7 +11649,7 @@
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B3">
         <v>100</v>
@@ -11713,7 +11713,7 @@
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B4">
         <v>100</v>
@@ -11777,7 +11777,7 @@
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B5">
         <v>100</v>
@@ -11841,7 +11841,7 @@
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B6">
         <v>100</v>
@@ -11905,7 +11905,7 @@
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B7">
         <v>100</v>
@@ -11969,7 +11969,7 @@
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B8">
         <v>100</v>
@@ -12033,7 +12033,7 @@
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B9">
         <v>100</v>
@@ -12097,7 +12097,7 @@
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B10">
         <v>100</v>
@@ -12161,7 +12161,7 @@
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B11">
         <v>12800</v>
@@ -12225,7 +12225,7 @@
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B12">
         <v>12800</v>
@@ -12289,7 +12289,7 @@
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B13">
         <v>1600</v>
@@ -12353,7 +12353,7 @@
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B14">
         <v>1600</v>
@@ -12417,7 +12417,7 @@
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B15">
         <v>1600</v>
@@ -12481,7 +12481,7 @@
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B16">
         <v>1600</v>
@@ -12545,7 +12545,7 @@
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B17">
         <v>1600</v>
@@ -12609,7 +12609,7 @@
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B18">
         <v>200</v>
@@ -12673,7 +12673,7 @@
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B19">
         <v>200</v>
@@ -12737,7 +12737,7 @@
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B20">
         <v>200</v>
@@ -12801,7 +12801,7 @@
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B21">
         <v>200</v>
@@ -12865,7 +12865,7 @@
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B22">
         <v>200</v>
@@ -12929,7 +12929,7 @@
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B23">
         <v>200</v>
@@ -12993,7 +12993,7 @@
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B24">
         <v>200</v>
@@ -13057,7 +13057,7 @@
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B25">
         <v>200</v>
@@ -13121,7 +13121,7 @@
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B26">
         <v>25600</v>
@@ -13185,7 +13185,7 @@
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B27">
         <v>3200</v>
@@ -13249,7 +13249,7 @@
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B28">
         <v>3200</v>
@@ -13313,7 +13313,7 @@
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B29">
         <v>3200</v>
@@ -13377,7 +13377,7 @@
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B30">
         <v>3200</v>
@@ -13441,7 +13441,7 @@
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B31">
         <v>400</v>
@@ -13505,7 +13505,7 @@
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B32">
         <v>400</v>
@@ -13569,7 +13569,7 @@
     </row>
     <row r="33" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B33">
         <v>400</v>
@@ -13633,7 +13633,7 @@
     </row>
     <row r="34" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B34">
         <v>400</v>
@@ -13697,7 +13697,7 @@
     </row>
     <row r="35" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B35">
         <v>400</v>
@@ -13761,7 +13761,7 @@
     </row>
     <row r="36" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B36">
         <v>400</v>
@@ -13825,7 +13825,7 @@
     </row>
     <row r="37" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B37">
         <v>400</v>
@@ -13889,7 +13889,7 @@
     </row>
     <row r="38" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B38">
         <v>6400</v>
@@ -13953,7 +13953,7 @@
     </row>
     <row r="39" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B39">
         <v>6400</v>
@@ -14017,7 +14017,7 @@
     </row>
     <row r="40" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B40">
         <v>6400</v>
@@ -14081,7 +14081,7 @@
     </row>
     <row r="41" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B41">
         <v>800</v>
@@ -14145,7 +14145,7 @@
     </row>
     <row r="42" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B42">
         <v>800</v>
@@ -14209,7 +14209,7 @@
     </row>
     <row r="43" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B43">
         <v>800</v>
@@ -14273,7 +14273,7 @@
     </row>
     <row r="44" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B44">
         <v>800</v>
@@ -14337,7 +14337,7 @@
     </row>
     <row r="45" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B45">
         <v>800</v>
@@ -14401,7 +14401,7 @@
     </row>
     <row r="46" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B46">
         <v>800</v>

--- a/results/results.xlsx
+++ b/results/results.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="4" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="real_datasets" sheetId="1" r:id="rId1"/>
@@ -12,8 +12,9 @@
     <sheet name="RDG1" sheetId="3" r:id="rId3"/>
     <sheet name="Execution time real datasets" sheetId="5" r:id="rId4"/>
     <sheet name="Accuracy real datasets" sheetId="6" r:id="rId5"/>
-    <sheet name="Difference in accuracy real dat" sheetId="7" r:id="rId6"/>
-    <sheet name="SpeedUp real datasets" sheetId="8" r:id="rId7"/>
+    <sheet name="AUC real datasets" sheetId="10" r:id="rId6"/>
+    <sheet name="Difference in accuracy real dat" sheetId="7" r:id="rId7"/>
+    <sheet name="SpeedUp real datasets" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -672,7 +673,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1572,7 +1572,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1674,7 +1673,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2573,7 +2571,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2650,6 +2647,770 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-ES"/>
+              <a:t>AUC</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="es-ES" baseline="0"/>
+              <a:t> real datasets</a:t>
+            </a:r>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>real_datasets!$I$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v> auc_FRF</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>real_datasets!$A$2:$A$34</c:f>
+              <c:strCache>
+                <c:ptCount val="33"/>
+                <c:pt idx="0">
+                  <c:v>amazon-commerce-reviews.arff</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>arcene.arff</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>bank-marketing-full.arff</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>bioresponse.arff</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>cnae-9.arff</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>dorothea_train.arff</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>first-order-theorem.arff</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>GAMETES_Epistasis.arff</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>gas-drift.arff</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>gas-drift-different-concentrations.arff</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>gisette_train.arff</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>har.arff</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>kdd_ipums_la_97-small.arff</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>kdd_ipums_la_98-small.arff</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>kdd_ipums_la_99-small.arff</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>la1s.wc.arff</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>madelon.arff</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>mfeat-factors.arff</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>mfeat-karhunen.arff</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>mfeat-zernike.arff</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>micro-mass-pure-spectra.arff</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>multiple-features.arff</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>musk.arff</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>nomao.arff</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>nursery.arff</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>ohscal.wc.arff</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>OVA_Breast.arff</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>OVA_Lung.arff</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>p53_mutants_train.arff</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>skin-segmentation.arff</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>speeddating.arff</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>sylva_agnostic.arff</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>waveform-5000.arff</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>real_datasets!$I$2:$I$34</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="33"/>
+                <c:pt idx="0">
+                  <c:v>0.96300090702947805</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.90401785714285698</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.92652660966441702</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.87563350817122299</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.99647762345678903</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.93536799335118603</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.87192119253636702</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.49756937499999998</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.99970350045912904</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.99980358025718796</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.993551678321969</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.99960594274032599</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.73299999999999998</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.663392132399654</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.76500000000000001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.98125886263363604</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.75169763313609395</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.99848033333333297</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.99804494444444403</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.96960938888888903</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.99429707693532299</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.99957827777777797</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.99999372784152996</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.99514010332438196</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.99591978856797103</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.96371011112776395</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.97811852525995702</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.96650223161851001</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.93975349324438195</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.99990269907608698</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.99933465462181703</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.99731412232994998</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.96874320271161396</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-DBF2-4B8E-AA1B-F6CB74C51975}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>real_datasets!$L$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v> auc_W</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>real_datasets!$A$2:$A$34</c:f>
+              <c:strCache>
+                <c:ptCount val="33"/>
+                <c:pt idx="0">
+                  <c:v>amazon-commerce-reviews.arff</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>arcene.arff</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>bank-marketing-full.arff</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>bioresponse.arff</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>cnae-9.arff</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>dorothea_train.arff</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>first-order-theorem.arff</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>GAMETES_Epistasis.arff</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>gas-drift.arff</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>gas-drift-different-concentrations.arff</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>gisette_train.arff</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>har.arff</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>kdd_ipums_la_97-small.arff</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>kdd_ipums_la_98-small.arff</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>kdd_ipums_la_99-small.arff</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>la1s.wc.arff</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>madelon.arff</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>mfeat-factors.arff</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>mfeat-karhunen.arff</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>mfeat-zernike.arff</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>micro-mass-pure-spectra.arff</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>multiple-features.arff</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>musk.arff</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>nomao.arff</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>nursery.arff</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>ohscal.wc.arff</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>OVA_Breast.arff</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>OVA_Lung.arff</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>p53_mutants_train.arff</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>skin-segmentation.arff</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>speeddating.arff</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>sylva_agnostic.arff</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>waveform-5000.arff</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>real_datasets!$L$2:$L$34</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="33"/>
+                <c:pt idx="0">
+                  <c:v>0.93747569160997701</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.907041396103896</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.93042371931668</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.87793162710336603</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.99548186728395005</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.93950195462800501</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.871484805152135</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.49125249999999998</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.99972276041480101</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.99982262653367904</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.99372218033995396</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.99957750995851602</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.72899999999999998</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.66800000000000004</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.76200000000000001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.982914946889759</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.74532550295857902</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.99841663888888799</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.99798949999999997</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.96944624999999995</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.99425224725178096</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.99949630555555502</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.99999203647295298</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.99501381230881702</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.99976293899925495</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.969820222758357</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.97789196987006899</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.966634786402228</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.95102358981360602</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.99996965208486099</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.99408491453044501</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.99868378024716198</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.96855306041852796</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-DBF2-4B8E-AA1B-F6CB74C51975}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="931407903"/>
+        <c:axId val="931404159"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="931407903"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="931404159"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="931404159"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="931407903"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-ES"/>
+    </a:p>
+  </c:txPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
       <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
@@ -2951,20 +3712,6 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -2987,7 +3734,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -3079,6 +3826,38 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -3111,7 +3890,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -3416,8 +4195,7 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="219"/>
-        <c:overlap val="-27"/>
+        <c:gapWidth val="150"/>
         <c:axId val="1862917056"/>
         <c:axId val="1862913312"/>
       </c:barChart>
@@ -3450,7 +4228,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -3536,6 +4314,38 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -3689,6 +4499,46 @@
 </file>
 
 <file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -4735,6 +5585,509 @@
 </file>
 
 <file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -5250,7 +6603,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -5779,7 +7132,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="141" workbookViewId="0" zoomToFit="1"/>
+    <sheetView tabSelected="1" zoomScale="141" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -5790,7 +7143,18 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="141" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="141" workbookViewId="0" zoomToFit="1"/>
+  </sheetViews>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</chartsheet>
+</file>
+
+<file path=xl/chartsheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView zoomScale="141" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -5879,6 +7243,33 @@
 </file>
 
 <file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="9302074" cy="6079787"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
@@ -6290,7 +7681,7 @@
   <dimension ref="A1:S34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:XFD7"/>
+      <selection activeCell="L1" activeCellId="2" sqref="A1:A1048576 I1:I1048576 L1:L1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
